--- a/data/long_bre/P18_5-Urba-long_bre.xlsx
+++ b/data/long_bre/P18_5-Urba-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,77</t>
+          <t>7,81</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>3,86</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,67%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>23,13%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>14,3%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>18,04%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 6,89</t>
+          <t>-2,63; 6,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 13,94</t>
+          <t>0,16; 13,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 9,93</t>
+          <t>-1,72; 10,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,67; 56,48</t>
+          <t>-2,23; 12,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 45,77</t>
+          <t>-16,05; 54,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 40,97</t>
+          <t>0,4; 47,14</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-5,66; 43,26</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-7,57; 55,59</t>
         </is>
       </c>
     </row>
@@ -675,37 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,08</t>
+          <t>-4,02</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,05%</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-4,16%</t>
+          <t>-1,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-6,96%</t>
+          <t>-6,2%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-9,01%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-2,36%</t>
         </is>
       </c>
     </row>
@@ -718,32 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 5,74</t>
+          <t>-7,06; 5,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 6,11</t>
+          <t>-9,28; 5,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 4,68</t>
+          <t>-10,59; 2,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,92; 18,93</t>
+          <t>-11,25; 7,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,26; 16,94</t>
+          <t>-19,0; 19,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,89; 11,71</t>
+          <t>-20,14; 13,67</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-21,7; 5,18</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-21,01; 16,49</t>
         </is>
       </c>
     </row>
@@ -751,37 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,06</t>
+          <t>-5,23</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,36%</t>
+          <t>-3,62</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-20,79%</t>
+          <t>-2,14%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,96%</t>
+          <t>-21,33%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,54%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-13,34%</t>
         </is>
       </c>
     </row>
@@ -794,74 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 5,83</t>
+          <t>-7,56; 5,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 1,35</t>
+          <t>-12,95; 0,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 5,49</t>
+          <t>-6,91; 6,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,2; 12,34</t>
+          <t>-10,65; 3,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-41,62; 6,51</t>
+          <t>-13,57; 11,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,42; 22,13</t>
+          <t>-43,02; 4,85</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-21,44; 28,0</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-34,22; 14,66</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,15</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-10,2%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 6,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 10,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 3,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,68; 45,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,84; 32,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,5; 11,43</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-7,83</t>
+          <t>-1,84</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-9,01</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>-3,24</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-19,37%</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-20,9%</t>
+          <t>-10,57%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>4,51%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-10,53%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7,69%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-16,51; -0,06</t>
+          <t>-7,79; 3,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,01; -0,46</t>
+          <t>-6,52; 9,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 11,63</t>
+          <t>-10,17; 3,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-36,44; -0,41</t>
+          <t>-6,39; 10,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-36,83; -1,11</t>
+          <t>-37,59; 24,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 33,22</t>
+          <t>-15,13; 29,04</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-29,38; 13,1</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-18,53; 40,95</t>
         </is>
       </c>
     </row>
@@ -983,37 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,75</t>
+          <t>-5,27</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,92</t>
+          <t>-8,08</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>18,21%</t>
+          <t>-10,94</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>34,99%</t>
+          <t>-13,69%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-4,24%</t>
+          <t>-19,03%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>11,54%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-23,72%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 15,96</t>
+          <t>-13,97; 2,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 13,97</t>
+          <t>-16,86; 0,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 5,01</t>
+          <t>-2,92; 11,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 43,8</t>
+          <t>-20,3; -3,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 86,84</t>
+          <t>-31,93; 8,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-24,37; 18,73</t>
+          <t>-35,33; 0,18</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-6,66; 32,1</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-39,92; -7,81</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>7,1</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>6,39</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-19,11</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-6,93%</t>
+          <t>8,64</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,12%</t>
+          <t>16,09%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-45,68%</t>
+          <t>31,84%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-4,36%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>36,06%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,57; 11,44</t>
+          <t>-0,16; 15,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-17,65; 12,87</t>
+          <t>-0,9; 13,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-33,13; -6,26</t>
+          <t>-7,65; 5,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-49,65; 80,41</t>
+          <t>1,34; 16,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-36,53; 43,93</t>
+          <t>-0,56; 39,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-64,03; -16,31</t>
+          <t>-3,93; 80,73</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-22,7; 20,47</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>5,7; 91,1</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-3,65</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>16,52</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-10,15%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-4,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>45,5%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,29; 10,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-14,95; 14,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,48; 29,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-47,19; 41,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-34,38; 57,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,64; 100,7</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>5,18</t>
+          <t>-5,48</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>-18,19</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>12,35%</t>
+          <t>10,54</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>-24,5%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>-5,01%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-44,78%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>50,69%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 21,43</t>
+          <t>-17,09; 6,46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,28; 15,15</t>
+          <t>-20,35; 13,56</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 13,87</t>
+          <t>-31,78; -6,22</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-20,09; 65,37</t>
+          <t>-5,62; 25,35</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-38,78; 92,15</t>
+          <t>-57,62; 45,26</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-33,61; 82,14</t>
+          <t>-38,29; 42,72</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-64,24; -17,56</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-18,65; 202,12</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>-2,96</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>15,49</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>-8,18%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-5,19%</t>
+          <t>-1,64%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>41,7%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-4,37%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 4,3</t>
+          <t>-23,36; 12,32</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 9,29</t>
+          <t>-15,67; 14,96</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 2,38</t>
+          <t>2,49; 28,57</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 29,7</t>
+          <t>-22,59; 17,05</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 28,49</t>
+          <t>-47,69; 46,71</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-17,95; 8,3</t>
+          <t>-36,07; 58,2</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>5,56; 99,32</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-38,86; 56,58</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-3,75</t>
+          <t>8,44</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-4,5</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-10,23%</t>
+          <t>-8,63</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-10,85%</t>
+          <t>20,41%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>11,75%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>12,15%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-24,23%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 1,15</t>
+          <t>-7,46; 25,43</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 1,14</t>
+          <t>-11,92; 15,05</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 7,28</t>
+          <t>-8,37; 15,39</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-22,17; 3,42</t>
+          <t>-32,49; 10,59</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-21,84; 3,15</t>
+          <t>-14,48; 83,76</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 18,65</t>
+          <t>-39,69; 93,32</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-30,4; 99,51</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-62,79; 55,19</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-2,1%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,44 +1732,449 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 8,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 4,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 3,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 18,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-17,54; 22,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-15,99; 13,36</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>-0,67</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>4,19</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>-1,53</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>4,44</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>-4,12%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>11,54%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-5,06%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>16,42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-4,05; 2,97</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-1,21; 9,42</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>-6,16; 2,23</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>-1,09; 9,78</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-22,43; 20,88</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-3,23; 28,41</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-19,03; 7,95</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-3,47; 41,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-2,67</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>-4,42</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>1,63</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>-4,92</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-7,41%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-10,74%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>3,92%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-10,68%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-7,65; 2,15</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-9,79; 0,47</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-2,37; 6,57</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-11,34; 1,59</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-19,82; 6,38</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-21,79; 1,27</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-5,27; 16,8</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-22,87; 3,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>3,34</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>7,02%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>1,05%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-0,37%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>1,8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-1,6; 8,25</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-4,16; 4,87</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-5,03; 4,04</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-4,87; 5,93</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-3,1; 18,4</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-16,31; 24,48</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-16,62; 15,96</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-16,1; 25,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
